--- a/move_in.xlsx
+++ b/move_in.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fasai\OneDrive\Desktop\Fasai\Year3\2nd semester\bus int sys\2nd_group_work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fasai\OneDrive\Desktop\Fasai\Year3\2nd semester\bus int sys\2nd_group_work\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4B3B9D-5A45-457A-8FC6-865CB80C1C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D54ADD3-EC55-48B3-AE33-D1AEF8998D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ที่มา" sheetId="6" r:id="rId1"/>
@@ -439,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAA1526-7EB4-4B34-B875-4582AC8A8151}">
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
@@ -1368,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B543EE3C-FC9D-48EC-B3F0-41B98D2103D1}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/move_in.xlsx
+++ b/move_in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fasai\OneDrive\Desktop\Fasai\Year3\2nd semester\bus int sys\2nd_group_work\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D54ADD3-EC55-48B3-AE33-D1AEF8998D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3428A7F7-6F40-4C0B-A274-F776D1A64C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
   <si>
     <t>สถิติจำนวนการย้ายเข้า</t>
   </si>
@@ -118,7 +118,10 @@
     <t>https://stat.bora.dopa.go.th/stat/statnew/statMONTH/statmonth/#/mainpage</t>
   </si>
   <si>
-    <t>as of 02/11/2024</t>
+    <t>as of 11/02/2024</t>
+  </si>
+  <si>
+    <t>สถิติประชากรทางการทะเบียนราษฎร(รายเดือน)</t>
   </si>
 </sst>
 </file>
@@ -437,14 +440,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAA1526-7EB4-4B34-B875-4582AC8A8151}">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>

--- a/move_in.xlsx
+++ b/move_in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fasai\OneDrive\Desktop\Fasai\Year3\2nd semester\bus int sys\2nd_group_work\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3428A7F7-6F40-4C0B-A274-F776D1A64C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D23CDD-D871-4CDC-A32F-43EB6DA44B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,10 +128,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,14 +162,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,7 +453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAA1526-7EB4-4B34-B875-4582AC8A8151}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -452,7 +465,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -462,6 +475,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="/mainpage" xr:uid="{5A33F96C-3960-4125-A839-092B152EF23D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
